--- a/biology/Botanique/Loutfy_Boulos/Loutfy_Boulos.xlsx
+++ b/biology/Botanique/Loutfy_Boulos/Loutfy_Boulos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Loutfy Boulos, né le 14 mai 1932 à Qena en Égypte et mort le 27 avril 2015 au Caire, est un botaniste égyptien.
 Il est connu principalement pour la publication, entre 1995 et 2007, de sa Flore d'Égypte (Flora of Egypt) en quatre volumes, qui recense 2125 espèces, dont 63 espèces endémiques d'Égypte et 92 endémiques proches vivant en Égypte et dans un pays limitrophe.
@@ -512,12 +524,48 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1966. A natural history study of Kurkur Oasis, Libyan Desert, Egypt. 22 p.
-Boulos, L; M Nabil el-Hadidi; M el-Gohary (illustr.)1967. Common weeds in Egypt. Ed. Dar al-Maaref. xii + 6 p.
-Livres
-1959. A contribution to the flora of Gaza Zone. Ed. General Organisation for Govt. Print. Offices. 32 p.
+Boulos, L; M Nabil el-Hadidi; M el-Gohary (illustr.)1967. Common weeds in Egypt. Ed. Dar al-Maaref. xii + 6 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Loutfy_Boulos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loutfy_Boulos</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1959. A contribution to the flora of Gaza Zone. Ed. General Organisation for Govt. Print. Offices. 32 p.
 1960. Flora of Gebel El-Maghara North Sinai. Ed. General Organisation for Government. Printing Offices. 24 p.
 El-Hadidi, MN; L Boulos, M El-Gohary (illust.), S Makar (illust.) 1979. Street Trees in Egypt (2e édition, révisée)
 1983. Medicinal plants of North Africa. Medicinal plants of the world, no 3. 286 p.  (ISBN 0-917256-16-6)
@@ -532,39 +580,78 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Loutfy_Boulos</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Loutfy_Boulos</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Récompenses
-2013, Médaille d'or Optima (Organization for the Phyto-Taxonomic Investigation of the Mediterranean Area, organisation pour l'étude phyto-taxinomique de la région méditerranéenne)[1].
-Espèces dédiées
-(Asteraceae) Atractylis boulosii Tackholm[2]
-(Iridaceae) Crocus boulosii'' Greuter[3]
-(Zygophyllaceae) Fagonia boulosii Hadidi[4]
-(Zygophyllaceae) Tetraena boulosii (Hosny) M.Hall[5]</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2013, Médaille d'or Optima (Organization for the Phyto-Taxonomic Investigation of the Mediterranean Area, organisation pour l'étude phyto-taxinomique de la région méditerranéenne).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Loutfy_Boulos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loutfy_Boulos</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces dédiées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Asteraceae) Atractylis boulosii Tackholm
+(Iridaceae) Crocus boulosii'' Greuter
+(Zygophyllaceae) Fagonia boulosii Hadidi
+(Zygophyllaceae) Tetraena boulosii (Hosny) M.Hall</t>
         </is>
       </c>
     </row>
